--- a/Automationprojects/artifact/script/gmailautomation.xlsx
+++ b/Automationprojects/artifact/script/gmailautomation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="14130" windowHeight="10095" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -1663,7 +1663,7 @@
     <t>Gmail Login Page</t>
   </si>
   <si>
-    <t>your name</t>
+    <t>Unnamalai</t>
   </si>
   <si>
     <t>activity</t>
@@ -1761,10 +1761,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1835,14 +1835,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1850,8 +1842,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1865,9 +1873,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1882,13 +1920,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1896,16 +1927,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1922,36 +1952,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1992,13 +1992,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2010,43 +2136,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2058,37 +2148,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2101,78 +2173,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2231,17 +2231,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2251,6 +2262,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2286,25 +2306,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2317,29 +2328,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2349,126 +2349,126 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4989,10 +4989,10 @@
   <sheetPr/>
   <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
